--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1044,6 +1044,23 @@
         <v>-0.04544624979142542</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B39">
+        <v>2025</v>
+      </c>
+      <c r="C39">
+        <v>0.2194017515915414</v>
+      </c>
+      <c r="D39">
+        <v>2026</v>
+      </c>
+      <c r="E39">
+        <v>-0.1883185981439661</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AVERAGE_10_9_winter.xlsx
@@ -423,13 +423,13 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.309964607477767</v>
+        <v>3.123541145015474</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>3.292079387398705</v>
+        <v>3.275761698145385</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1989</v>
       </c>
       <c r="C3">
-        <v>3.990753256129032</v>
+        <v>3.959010658874851</v>
       </c>
       <c r="D3">
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>3.894766455402432</v>
+        <v>3.716811705074696</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1990</v>
       </c>
       <c r="C4">
-        <v>5.337917583757479</v>
+        <v>4.722695063536686</v>
       </c>
       <c r="D4">
         <v>1991</v>
       </c>
       <c r="E4">
-        <v>5.271624700114952</v>
+        <v>5.522497812297966</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1991</v>
       </c>
       <c r="C5">
-        <v>6.210850358288234</v>
+        <v>6.739021039846627</v>
       </c>
       <c r="D5">
         <v>1992</v>
       </c>
       <c r="E5">
-        <v>4.003658823348033</v>
+        <v>3.88772167754905</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1992</v>
       </c>
       <c r="C6">
-        <v>2.120896741860445</v>
+        <v>2.619839412265601</v>
       </c>
       <c r="D6">
         <v>1993</v>
       </c>
       <c r="E6">
-        <v>3.093518793608729</v>
+        <v>2.645362710332533</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +508,13 @@
         <v>1993</v>
       </c>
       <c r="C7">
-        <v>-1.105151118378667</v>
+        <v>-0.7919564768266385</v>
       </c>
       <c r="D7">
         <v>1994</v>
       </c>
       <c r="E7">
-        <v>1.162146262435582</v>
+        <v>0.8976572162586516</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +525,13 @@
         <v>1994</v>
       </c>
       <c r="C8">
-        <v>2.866096089773529</v>
+        <v>1.877689851450803</v>
       </c>
       <c r="D8">
         <v>1995</v>
       </c>
       <c r="E8">
-        <v>1.295274349906239</v>
+        <v>1.899791808163398</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1995</v>
       </c>
       <c r="C9">
-        <v>2.255498870175066</v>
+        <v>2.705004599189187</v>
       </c>
       <c r="D9">
         <v>1996</v>
       </c>
       <c r="E9">
-        <v>2.253863008704204</v>
+        <v>2.111643953433728</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1996</v>
       </c>
       <c r="C10">
-        <v>1.440827265940592</v>
+        <v>1.110374544249249</v>
       </c>
       <c r="D10">
         <v>1997</v>
       </c>
       <c r="E10">
-        <v>2.507861161314984</v>
+        <v>2.576021643263426</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +576,13 @@
         <v>1997</v>
       </c>
       <c r="C11">
-        <v>2.388790018333853</v>
+        <v>2.267566233338814</v>
       </c>
       <c r="D11">
         <v>1998</v>
       </c>
       <c r="E11">
-        <v>2.172278666428507</v>
+        <v>2.348556921565126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +593,13 @@
         <v>1998</v>
       </c>
       <c r="C12">
-        <v>2.868603576215123</v>
+        <v>2.688433258834588</v>
       </c>
       <c r="D12">
         <v>1999</v>
       </c>
       <c r="E12">
-        <v>2.649778901248667</v>
+        <v>2.730428819177333</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>1999</v>
       </c>
       <c r="C13">
-        <v>1.199033587256038</v>
+        <v>1.014079695989589</v>
       </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>1.878782575038151</v>
+        <v>1.901826179618205</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>2000</v>
       </c>
       <c r="C14">
-        <v>3.180414548358224</v>
+        <v>3.013853578092252</v>
       </c>
       <c r="D14">
         <v>2001</v>
       </c>
       <c r="E14">
-        <v>2.141413002119941</v>
+        <v>2.435357021275819</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +644,13 @@
         <v>2001</v>
       </c>
       <c r="C15">
-        <v>0.8881197053071554</v>
+        <v>1.331295149770684</v>
       </c>
       <c r="D15">
         <v>2002</v>
       </c>
       <c r="E15">
-        <v>1.417229954124744</v>
+        <v>1.127665471558248</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2002</v>
       </c>
       <c r="C16">
-        <v>0.2503723745896691</v>
+        <v>0.04589006555719699</v>
       </c>
       <c r="D16">
         <v>2003</v>
       </c>
       <c r="E16">
-        <v>0.8114623372950991</v>
+        <v>0.8401596151991431</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2003</v>
       </c>
       <c r="C17">
-        <v>-0.160597218777192</v>
+        <v>0.009546395482029624</v>
       </c>
       <c r="D17">
         <v>2004</v>
       </c>
       <c r="E17">
-        <v>0.06866307491661949</v>
+        <v>0.02245646656315881</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2004</v>
       </c>
       <c r="C18">
-        <v>1.142421957279982</v>
+        <v>0.8709390141433015</v>
       </c>
       <c r="D18">
         <v>2005</v>
       </c>
       <c r="E18">
-        <v>0.6102547707981243</v>
+        <v>0.7407001102931465</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2005</v>
       </c>
       <c r="C19">
-        <v>1.080932672358381</v>
+        <v>0.7652063367885598</v>
       </c>
       <c r="D19">
         <v>2006</v>
       </c>
       <c r="E19">
-        <v>1.236500865721557</v>
+        <v>1.397861196490657</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +729,13 @@
         <v>2006</v>
       </c>
       <c r="C20">
-        <v>2.573999374437519</v>
+        <v>2.267579219134386</v>
       </c>
       <c r="D20">
         <v>2007</v>
       </c>
       <c r="E20">
-        <v>1.889446339562029</v>
+        <v>2.220975586034668</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +746,13 @@
         <v>2007</v>
       </c>
       <c r="C21">
-        <v>2.701415685301534</v>
+        <v>3.146753122914103</v>
       </c>
       <c r="D21">
         <v>2008</v>
       </c>
       <c r="E21">
-        <v>2.58473653892517</v>
+        <v>2.456586080053058</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>2008</v>
       </c>
       <c r="C22">
-        <v>1.582937641859083</v>
+        <v>1.769033835366818</v>
       </c>
       <c r="D22">
         <v>2009</v>
       </c>
       <c r="E22">
-        <v>1.386725702500713</v>
+        <v>1.086632508372576</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +780,13 @@
         <v>2009</v>
       </c>
       <c r="C23">
-        <v>-5.011264053911613</v>
+        <v>-4.774715709990263</v>
       </c>
       <c r="D23">
         <v>2010</v>
       </c>
       <c r="E23">
-        <v>-0.4521396749079032</v>
+        <v>-0.8529145826070339</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +797,13 @@
         <v>2010</v>
       </c>
       <c r="C24">
-        <v>3.340769212732742</v>
+        <v>1.95493704440024</v>
       </c>
       <c r="D24">
         <v>2011</v>
       </c>
       <c r="E24">
-        <v>0.3565121095773449</v>
+        <v>1.373265374526711</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>2011</v>
       </c>
       <c r="C25">
-        <v>3.266613546244024</v>
+        <v>3.478075069442799</v>
       </c>
       <c r="D25">
         <v>2012</v>
       </c>
       <c r="E25">
-        <v>2.857059467652245</v>
+        <v>2.807281147895924</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>2012</v>
       </c>
       <c r="C26">
-        <v>1.171043385317327</v>
+        <v>1.232342134690434</v>
       </c>
       <c r="D26">
         <v>2013</v>
       </c>
       <c r="E26">
-        <v>2.293513746063258</v>
+        <v>2.058767060726563</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +848,13 @@
         <v>2013</v>
       </c>
       <c r="C27">
-        <v>0.486130238396254</v>
+        <v>0.2542811494408159</v>
       </c>
       <c r="D27">
         <v>2014</v>
       </c>
       <c r="E27">
-        <v>0.9879154814133928</v>
+        <v>1.100861823237564</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +865,13 @@
         <v>2014</v>
       </c>
       <c r="C28">
-        <v>1.462112914831626</v>
+        <v>1.519778766382096</v>
       </c>
       <c r="D28">
         <v>2015</v>
       </c>
       <c r="E28">
-        <v>0.5584147504514414</v>
+        <v>0.6176362615319508</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +882,13 @@
         <v>2015</v>
       </c>
       <c r="C29">
-        <v>1.485174342633844</v>
+        <v>1.469441753880329</v>
       </c>
       <c r="D29">
         <v>2016</v>
       </c>
       <c r="E29">
-        <v>1.630702503967973</v>
+        <v>1.593307036690472</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>2016</v>
       </c>
       <c r="C30">
-        <v>1.733072837491711</v>
+        <v>1.638203081492495</v>
       </c>
       <c r="D30">
         <v>2017</v>
       </c>
       <c r="E30">
-        <v>1.365567739091578</v>
+        <v>1.425381384581903</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>2017</v>
       </c>
       <c r="C31">
-        <v>2.532746743612302</v>
+        <v>2.268697431234346</v>
       </c>
       <c r="D31">
         <v>2018</v>
       </c>
       <c r="E31">
-        <v>2.340401793803593</v>
+        <v>2.525738252590148</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>2018</v>
       </c>
       <c r="C32">
-        <v>1.55060959846447</v>
+        <v>1.984425467899631</v>
       </c>
       <c r="D32">
         <v>2019</v>
       </c>
       <c r="E32">
-        <v>1.450339910498544</v>
+        <v>1.272991730262341</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>2019</v>
       </c>
       <c r="C33">
-        <v>0.605733605626968</v>
+        <v>0.6066448776129052</v>
       </c>
       <c r="D33">
         <v>2020</v>
       </c>
       <c r="E33">
-        <v>0.9875621988306049</v>
+        <v>0.8323605077169782</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-5.393157855150243</v>
+        <v>-4.243076347305386</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.6614402521704976</v>
+        <v>-0.2172115314521883</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>2.658879889741361</v>
+        <v>1.438499295329754</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>1.246339038163491</v>
+        <v>1.725839624491665</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2022</v>
       </c>
       <c r="C36">
-        <v>1.999826927380854</v>
+        <v>1.906593537051537</v>
       </c>
       <c r="D36">
         <v>2023</v>
       </c>
       <c r="E36">
-        <v>1.097222285099164</v>
+        <v>1.222362529774923</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2023</v>
       </c>
       <c r="C37">
-        <v>-0.02454192713037262</v>
+        <v>0.08348019664223827</v>
       </c>
       <c r="D37">
         <v>2024</v>
       </c>
       <c r="E37">
-        <v>1.192480395252127</v>
+        <v>0.9116426337375527</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>2024</v>
       </c>
       <c r="C38">
-        <v>-0.1570176223593789</v>
+        <v>-0.214505326882275</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38">
-        <v>-0.04544624979142542</v>
+        <v>-0.02742999272021818</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2025</v>
       </c>
       <c r="C39">
-        <v>0.2194017515915414</v>
+        <v>0.1651547428133782</v>
       </c>
       <c r="D39">
         <v>2026</v>
       </c>
       <c r="E39">
-        <v>-0.1883185981439661</v>
+        <v>-0.1331392688890709</v>
       </c>
     </row>
   </sheetData>
